--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>719867.3236879634</v>
+        <v>717960.8392729287</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7765049.281621778</v>
+        <v>5301029.811029737</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6187346.756951108</v>
+        <v>3772361.273823851</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7429426.969400354</v>
+        <v>8486986.838937877</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>138.0097371692254</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>2.116870328528683</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.4091754580918</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>142.5359303380062</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>31.72385070910551</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>395.9611084486381</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -1196,10 +1198,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>242.6122314632435</v>
+        <v>0.5482317290083301</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059085</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1375,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>10.12090774188789</v>
+        <v>96.08513982486603</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128912</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1619,13 +1621,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>123.8394724344234</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5647472501408</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>228.2601210751802</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
@@ -1828,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>65.42520756919177</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>388.3430365919147</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>361.0003448878583</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -2008,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>21.30608602554481</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -2065,10 +2067,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2095,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2242,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>179.667585260291</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -2305,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>55.69551283691951</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>271.4342543713331</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -2327,13 +2329,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>228.8258688538636</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -2372,7 +2374,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -2488,13 +2490,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>129.9555967672233</v>
       </c>
       <c r="H25" t="n">
-        <v>54.68688746169106</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2570,10 +2572,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,16 +2608,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>330.7262294157694</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -2713,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>86.45678295804882</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2798,13 +2800,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>378.9769832968749</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>101.6409518870423</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>164.5175082466431</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3007,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>166.7165542762725</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>360.5621482941648</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
@@ -3038,10 +3040,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>378.9769832968749</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
@@ -3095,7 +3097,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>114.5953087085396</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
@@ -3247,7 +3249,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>271.0640515220193</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3275,13 +3277,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>367.6236394854355</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3421,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3475,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>54.68688746169129</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -3518,10 +3520,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3566,7 +3568,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>261.9522503562252</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -3661,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>123.7878237420648</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>180.6077930059089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3791,10 +3793,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3803,7 +3805,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>39.64108301376388</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3907,13 +3909,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>106.9706214097036</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>10.67714500126746</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3977,25 +3979,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>100.0791888769556</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>119.8051733265733</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4141,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>136.1769805884545</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1277.096428763703</v>
+        <v>1080.712837245046</v>
       </c>
       <c r="C2" t="n">
-        <v>866.9718380769729</v>
+        <v>1080.712837245046</v>
       </c>
       <c r="D2" t="n">
-        <v>866.9718380769729</v>
+        <v>676.2489073381062</v>
       </c>
       <c r="E2" t="n">
-        <v>452.6316225938696</v>
+        <v>676.2489073381062</v>
       </c>
       <c r="F2" t="n">
-        <v>452.6316225938696</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G2" t="n">
-        <v>43.90333848670173</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4331,22 +4333,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
         <v>558.6080202959273</v>
       </c>
       <c r="M2" t="n">
-        <v>692.8507596625949</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N2" t="n">
-        <v>1209.69369432892</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O2" t="n">
-        <v>1209.69369432892</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4361,19 +4363,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="W2" t="n">
-        <v>2088.254281480102</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="X2" t="n">
-        <v>2088.254281480102</v>
+        <v>1080.712837245046</v>
       </c>
       <c r="Y2" t="n">
-        <v>1687.317608428192</v>
+        <v>1080.712837245046</v>
       </c>
     </row>
     <row r="3">
@@ -4410,25 +4412,25 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922353</v>
+        <v>508.1659581184966</v>
       </c>
       <c r="L3" t="n">
-        <v>704.7239474634679</v>
+        <v>508.1659581184966</v>
       </c>
       <c r="M3" t="n">
-        <v>1221.566882129793</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="N3" t="n">
-        <v>1738.409816796118</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O3" t="n">
-        <v>1738.409816796118</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796118</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4443,7 +4445,7 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
         <v>1196.626901649</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>368.5101213811486</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C4" t="n">
-        <v>368.5101213811486</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D4" t="n">
-        <v>209.0154767040586</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E4" t="n">
-        <v>209.0154767040586</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F4" t="n">
-        <v>209.0154767040586</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960205</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H4" t="n">
         <v>41.76508562960205</v>
@@ -4510,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>503.2668642681101</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W4" t="n">
-        <v>368.5101213811486</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X4" t="n">
-        <v>368.5101213811486</v>
+        <v>1427.188295040345</v>
       </c>
       <c r="Y4" t="n">
-        <v>368.5101213811486</v>
+        <v>1202.452596429109</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>73.80937927516317</v>
+        <v>1277.096428763703</v>
       </c>
       <c r="C5" t="n">
-        <v>41.76508562960205</v>
+        <v>1277.096428763703</v>
       </c>
       <c r="D5" t="n">
-        <v>41.76508562960205</v>
+        <v>1277.096428763703</v>
       </c>
       <c r="E5" t="n">
-        <v>41.76508562960205</v>
+        <v>862.7562132805995</v>
       </c>
       <c r="F5" t="n">
-        <v>41.76508562960205</v>
+        <v>441.725801234287</v>
       </c>
       <c r="G5" t="n">
         <v>41.76508562960205</v>
@@ -4565,28 +4567,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L5" t="n">
-        <v>812.7934917636817</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M5" t="n">
-        <v>812.7934917636817</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N5" t="n">
-        <v>1014.011766457887</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O5" t="n">
-        <v>1530.854701124212</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4595,22 +4597,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1608.987305686471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1259.149751022952</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>875.3894501581206</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>474.7460523270731</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y5" t="n">
-        <v>73.80937927516317</v>
+        <v>1687.317608428192</v>
       </c>
     </row>
     <row r="6">
@@ -4644,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>41.76508562960205</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>158.3214934345126</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N6" t="n">
-        <v>675.1644281008379</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O6" t="n">
-        <v>1192.007362767163</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433488</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="Q6" t="n">
-        <v>2058.694762117472</v>
+        <v>2073.914533474168</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4680,7 +4682,7 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
         <v>1196.626901649</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4753,22 +4755,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V7" t="n">
-        <v>1571.163982250452</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W7" t="n">
-        <v>1571.163982250452</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X7" t="n">
-        <v>1543.534340936018</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y7" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>451.8896763163319</v>
+        <v>2541.96541775283</v>
       </c>
       <c r="C8" t="n">
-        <v>41.76508562960205</v>
+        <v>2131.840827066101</v>
       </c>
       <c r="D8" t="n">
-        <v>41.76508562960205</v>
+        <v>1727.376897159161</v>
       </c>
       <c r="E8" t="n">
-        <v>41.76508562960205</v>
+        <v>1313.036681676058</v>
       </c>
       <c r="F8" t="n">
-        <v>41.76508562960205</v>
+        <v>892.0062696297455</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>483.2779855225777</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>172.3694881502957</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736883</v>
       </c>
       <c r="J8" t="n">
-        <v>295.9505570973564</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>295.9505570973564</v>
+        <v>564.8467047942834</v>
       </c>
       <c r="L8" t="n">
-        <v>295.9505570973564</v>
+        <v>1277.438104606521</v>
       </c>
       <c r="M8" t="n">
-        <v>295.9505570973564</v>
+        <v>2053.756695598275</v>
       </c>
       <c r="N8" t="n">
-        <v>812.7934917636817</v>
+        <v>2806.937712236893</v>
       </c>
       <c r="O8" t="n">
-        <v>1329.636426430007</v>
+        <v>3450.568568653998</v>
       </c>
       <c r="P8" t="n">
-        <v>1726.536628995245</v>
+        <v>3979.72526657315</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>4300.886273368442</v>
       </c>
       <c r="R8" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.886273368442</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>4165.605198162542</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>3943.398714109401</v>
       </c>
       <c r="U8" t="n">
-        <v>1831.193789739612</v>
+        <v>3686.338222368911</v>
       </c>
       <c r="V8" t="n">
-        <v>1481.356235076093</v>
+        <v>3336.500667705392</v>
       </c>
       <c r="W8" t="n">
-        <v>1097.595934211262</v>
+        <v>2952.74036684056</v>
       </c>
       <c r="X8" t="n">
-        <v>696.9525363802143</v>
+        <v>2952.74036684056</v>
       </c>
       <c r="Y8" t="n">
-        <v>451.8896763163319</v>
+        <v>2952.18659741732</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>764.8485673539033</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>630.8534961028489</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>513.9563383222413</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>393.4635223145693</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>284.5036424970739</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>177.5135298114126</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>106.7663168471287</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736883</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736883</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>541.8239817326676</v>
       </c>
       <c r="L9" t="n">
-        <v>704.7239474634679</v>
+        <v>541.8239817326676</v>
       </c>
       <c r="M9" t="n">
-        <v>704.7239474634679</v>
+        <v>1384.801062427234</v>
       </c>
       <c r="N9" t="n">
-        <v>704.7239474634679</v>
+        <v>1782.662456633886</v>
       </c>
       <c r="O9" t="n">
-        <v>1221.566882129793</v>
+        <v>1782.662456633886</v>
       </c>
       <c r="P9" t="n">
-        <v>1738.409816796118</v>
+        <v>1782.662456633886</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="R9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1980.264271594411</v>
+        <v>2024.516911432178</v>
       </c>
       <c r="T9" t="n">
-        <v>1820.922407781419</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1623.571596919638</v>
+        <v>1667.824236757405</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1454.112709750439</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1020.300919787893</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>905.1515999894899</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.76508562960205</v>
+        <v>1175.351575768505</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960205</v>
+        <v>1004.258203330222</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960205</v>
+        <v>844.7635586531319</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960205</v>
+        <v>683.8527435214514</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>519.2216176320427</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>351.9712265575861</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>202.3637713630427</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736883</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>470.2970630371111</v>
+        <v>514.5497028748779</v>
       </c>
       <c r="M10" t="n">
-        <v>759.5611194776044</v>
+        <v>803.8137593153712</v>
       </c>
       <c r="N10" t="n">
-        <v>1040.399901871855</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1299.960512198329</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1505.635952447941</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="V10" t="n">
-        <v>503.2668642681101</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="W10" t="n">
-        <v>224.1971997769844</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="X10" t="n">
-        <v>41.76508562960205</v>
+        <v>1587.786980773785</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.76508562960205</v>
+        <v>1363.05128216255</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>876.4530309326553</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C11" t="n">
-        <v>466.3284402459254</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D11" t="n">
-        <v>466.3284402459254</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E11" t="n">
-        <v>51.98822476282214</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F11" t="n">
-        <v>51.98822476282214</v>
+        <v>587.5596545386256</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960205</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960205</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960205</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>41.76508562960205</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>558.6080202959273</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1075.450954962253</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>1592.293889628578</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>2088.254281480102</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>2088.254281480102</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T11" t="n">
-        <v>2088.254281480102</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U11" t="n">
-        <v>2088.254281480102</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V11" t="n">
-        <v>2088.254281480102</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W11" t="n">
-        <v>2088.254281480102</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X11" t="n">
-        <v>1687.610883649055</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y11" t="n">
-        <v>1286.674210597145</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161365</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650821</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844746</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768026</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593071</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>133.2608899736458</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936187</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>234.5779431922353</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>690.384199457534</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>1207.227134123859</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M12" t="n">
-        <v>1207.227134123859</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N12" t="n">
-        <v>1207.227134123859</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O12" t="n">
-        <v>1724.070068790184</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
-        <v>1738.409816796118</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912671</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517231</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1131.098935930739</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C13" t="n">
-        <v>960.0055634924552</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D13" t="n">
-        <v>800.5109188153651</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>639.6001036836846</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>474.9689777942758</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>307.7185867198193</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1111315252759</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1571.163982250452</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S13" t="n">
-        <v>1571.163982250452</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T13" t="n">
-        <v>1571.163982250452</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U13" t="n">
-        <v>1571.163982250452</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V13" t="n">
-        <v>1571.163982250452</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W13" t="n">
-        <v>1571.163982250452</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X13" t="n">
-        <v>1543.534340936018</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y13" t="n">
-        <v>1318.798642324783</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1691.724233752687</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C14" t="n">
-        <v>1281.599643065957</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D14" t="n">
-        <v>877.1357131590178</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E14" t="n">
-        <v>462.7954976759145</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F14" t="n">
-        <v>41.76508562960205</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960205</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960205</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960205</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960205</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
-        <v>558.6080202959273</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>1075.450954962253</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>1592.293889628578</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>2088.254281480102</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>2088.254281480102</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>2088.254281480102</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>2088.254281480102</v>
+        <v>4401.813433128853</v>
       </c>
       <c r="U14" t="n">
-        <v>2088.254281480102</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="V14" t="n">
-        <v>2088.254281480102</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W14" t="n">
-        <v>2088.254281480102</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X14" t="n">
-        <v>2088.254281480102</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y14" t="n">
-        <v>1691.724233752687</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.5959275161365</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650821</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>469.7036984844746</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>349.2108824768026</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>240.2510026593071</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>133.2608899736458</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936187</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>497.5713418949007</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>1014.414276561226</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M15" t="n">
-        <v>1054.568412147451</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N15" t="n">
-        <v>1054.568412147451</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O15" t="n">
-        <v>1571.411346813777</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1409.860069912671</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1196.626901649</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>860.8989601517231</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.76508562960205</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="C16" t="n">
-        <v>41.76508562960205</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="D16" t="n">
-        <v>41.76508562960205</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="E16" t="n">
-        <v>41.76508562960205</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F16" t="n">
-        <v>41.76508562960205</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G16" t="n">
-        <v>41.76508562960205</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H16" t="n">
-        <v>41.76508562960205</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1571.163982250452</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S16" t="n">
-        <v>1571.163982250452</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T16" t="n">
-        <v>1340.598203386633</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U16" t="n">
-        <v>1057.800055932758</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V16" t="n">
-        <v>783.9143108722797</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W16" t="n">
-        <v>504.844646381154</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X16" t="n">
-        <v>266.5007842408373</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.76508562960205</v>
+        <v>209.5897435862967</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1695.988587952916</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C17" t="n">
-        <v>1285.863997266186</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D17" t="n">
-        <v>1285.863997266186</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E17" t="n">
-        <v>871.5237817830823</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F17" t="n">
-        <v>450.4933697367699</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960205</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>41.76508562960205</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
-        <v>558.6080202959273</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.450954962253</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N17" t="n">
-        <v>1592.293889628578</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>2088.254281480102</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P17" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q17" t="n">
-        <v>2088.254281480102</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R17" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>2088.254281480102</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>2088.254281480102</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>2088.254281480102</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>2088.254281480102</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>2088.254281480102</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>2088.254281480102</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>2088.254281480102</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161365</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650821</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844746</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768026</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593071</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>133.2608899736458</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936187</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>497.5713418949007</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>704.7239474634679</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>1221.566882129793</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N18" t="n">
-        <v>1221.566882129793</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O18" t="n">
-        <v>1221.566882129793</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>1738.409816796118</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912671</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517231</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>224.1971997769844</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>224.1971997769844</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>224.1971997769844</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>63.28638464530388</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L19" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M19" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N19" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O19" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P19" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q19" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1485.891263925851</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1299.499495805762</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1059.950756782464</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U19" t="n">
-        <v>777.1526093285881</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V19" t="n">
-        <v>503.2668642681101</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W19" t="n">
-        <v>224.1971997769844</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X19" t="n">
-        <v>224.1971997769844</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.1971997769844</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5838,10 +5840,10 @@
         <v>1210.13812587521</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.13812587521</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N21" t="n">
-        <v>1210.13812587521</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O21" t="n">
         <v>1228.182536368609</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>425.1252146544881</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="C22" t="n">
-        <v>425.1252146544881</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D22" t="n">
-        <v>425.1252146544881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>425.1252146544881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
         <v>93.2436976906228</v>
@@ -5935,25 +5937,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1441.160184957644</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1441.160184957644</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>1441.160184957644</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>1167.274439897166</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W22" t="n">
-        <v>888.20477540604</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X22" t="n">
-        <v>649.8609132657234</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y22" t="n">
-        <v>425.1252146544881</v>
+        <v>252.7383423677128</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2238.282892603803</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C23" t="n">
-        <v>1828.158301917073</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D23" t="n">
-        <v>1423.694372010133</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E23" t="n">
-        <v>1009.35415652703</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F23" t="n">
-        <v>588.3237444807176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G23" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H23" t="n">
         <v>179.5954603735497</v>
@@ -6020,19 +6022,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6068,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M24" t="n">
-        <v>562.1177108836107</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4011.405617385543</v>
+        <v>975.5020640418711</v>
       </c>
       <c r="C25" t="n">
-        <v>3840.31224494726</v>
+        <v>975.5020640418711</v>
       </c>
       <c r="D25" t="n">
-        <v>3680.81760027017</v>
+        <v>816.0074193647811</v>
       </c>
       <c r="E25" t="n">
-        <v>3519.906785138489</v>
+        <v>655.0966042331006</v>
       </c>
       <c r="F25" t="n">
-        <v>3355.27565924908</v>
+        <v>490.4654783436919</v>
       </c>
       <c r="G25" t="n">
-        <v>3188.025268174624</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S25" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T25" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U25" t="n">
-        <v>4662.18488453114</v>
+        <v>1254.571728532997</v>
       </c>
       <c r="V25" t="n">
-        <v>4662.18488453114</v>
+        <v>1254.571728532997</v>
       </c>
       <c r="W25" t="n">
-        <v>4662.18488453114</v>
+        <v>975.5020640418711</v>
       </c>
       <c r="X25" t="n">
-        <v>4423.841022390823</v>
+        <v>975.5020640418711</v>
       </c>
       <c r="Y25" t="n">
-        <v>4199.105323779588</v>
+        <v>975.5020640418711</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2549.191389976085</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K26" t="n">
         <v>885.5886702674165</v>
@@ -6254,22 +6256,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3760.992640523532</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X26" t="n">
-        <v>3360.349242692484</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y26" t="n">
-        <v>2959.412569640574</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6305,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1110.412987110678</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>939.3196146723949</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6412,22 +6414,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.642594311473</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V28" t="n">
-        <v>1348.756849250995</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W28" t="n">
-        <v>1348.756849250995</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.412987110678</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y28" t="n">
-        <v>1110.412987110678</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2134.851174492981</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>490.5039577458317</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
         <v>490.5039577458317</v>
@@ -6488,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4559.51725636241</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4337.310772309269</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4080.250280568779</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>3730.41272590526</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3346.652425040428</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>2946.009027209381</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2545.072354157471</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6545,22 @@
         <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>947.1447271725442</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M30" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N30" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1182.57754799176</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="C31" t="n">
-        <v>1011.484175553476</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="D31" t="n">
-        <v>851.989530876386</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E31" t="n">
-        <v>691.0787157447054</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F31" t="n">
-        <v>526.4475898552967</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G31" t="n">
-        <v>359.19719878084</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H31" t="n">
-        <v>209.5897435862967</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I31" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J31" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K31" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L31" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M31" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N31" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O31" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P31" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q31" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.642594311473</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.642594311473</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.642594311473</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="V31" t="n">
-        <v>1348.756849250995</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="W31" t="n">
-        <v>1348.756849250995</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="X31" t="n">
-        <v>1348.756849250995</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="Y31" t="n">
-        <v>1348.756849250995</v>
+        <v>4222.119838211426</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G32" t="n">
         <v>490.5039577458317</v>
@@ -6698,7 +6700,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K32" t="n">
         <v>885.5886702674165</v>
@@ -6743,7 +6745,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2913.395580172211</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6779,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M33" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N33" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93.2436976906228</v>
+        <v>3586.882588502363</v>
       </c>
       <c r="C34" t="n">
-        <v>93.2436976906228</v>
+        <v>3415.789216064079</v>
       </c>
       <c r="D34" t="n">
-        <v>93.2436976906228</v>
+        <v>3415.789216064079</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>3415.789216064079</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>3415.789216064079</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>3248.538824989622</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J34" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K34" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L34" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M34" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N34" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O34" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P34" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R34" t="n">
-        <v>1537.369875986873</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S34" t="n">
-        <v>1350.978107866783</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T34" t="n">
-        <v>1111.429368843485</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="U34" t="n">
-        <v>828.6312213896092</v>
+        <v>4139.837998053967</v>
       </c>
       <c r="V34" t="n">
-        <v>554.7454763291312</v>
+        <v>3865.952252993488</v>
       </c>
       <c r="W34" t="n">
-        <v>280.9434040846672</v>
+        <v>3586.882588502363</v>
       </c>
       <c r="X34" t="n">
-        <v>280.9434040846672</v>
+        <v>3586.882588502363</v>
       </c>
       <c r="Y34" t="n">
-        <v>280.9434040846672</v>
+        <v>3586.882588502363</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E35" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
         <v>93.2436976906228</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7019,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M36" t="n">
-        <v>562.1177108836107</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.6240469015422</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>745.5306744632587</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>586.0360297861687</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>425.1252146544881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
         <v>93.2436976906228</v>
@@ -7123,22 +7125,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.642594311473</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W37" t="n">
-        <v>1567.403314047138</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X37" t="n">
-        <v>1329.059451906822</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y37" t="n">
-        <v>1104.323753295587</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2238.282892603803</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>1828.158301917073</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1423.694372010133</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>1009.35415652703</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>588.3237444807176</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629049</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="I38" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X38" t="n">
-        <v>3049.440745320202</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2648.504072268292</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C39" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D39" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E39" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F39" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G39" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H39" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I39" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>2808.508546243273</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>3264.314802508572</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>3750.634527358626</v>
       </c>
       <c r="M39" t="n">
-        <v>562.1177108836107</v>
+        <v>3750.634527358626</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>3750.634527358626</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>3750.634527358626</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>4312.340419847156</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R39" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S39" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T39" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U39" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V39" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W39" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X39" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y39" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.2436976906228</v>
+        <v>870.8642480873805</v>
       </c>
       <c r="C40" t="n">
-        <v>93.2436976906228</v>
+        <v>699.770875649097</v>
       </c>
       <c r="D40" t="n">
-        <v>93.2436976906228</v>
+        <v>699.770875649097</v>
       </c>
       <c r="E40" t="n">
-        <v>93.2436976906228</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H40" t="n">
         <v>93.2436976906228</v>
@@ -7354,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>828.6312213896092</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V40" t="n">
-        <v>554.7454763291312</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="W40" t="n">
-        <v>275.6758118380055</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="X40" t="n">
-        <v>275.6758118380055</v>
+        <v>870.8642480873805</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.2436976906228</v>
+        <v>870.8642480873805</v>
       </c>
     </row>
     <row r="41">
@@ -7439,16 +7441,16 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X41" t="n">
         <v>3273.997480009557</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C42" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D42" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E42" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F42" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G42" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H42" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I42" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>2808.508546243273</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>3264.314802508572</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>3721.075007995997</v>
       </c>
       <c r="M42" t="n">
-        <v>562.1177108836107</v>
+        <v>3721.075007995997</v>
       </c>
       <c r="N42" t="n">
-        <v>1435.775802995229</v>
+        <v>3721.075007995997</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>3721.075007995997</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>4282.780900484527</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>4632.62536516851</v>
       </c>
       <c r="R42" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S42" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T42" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U42" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V42" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W42" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X42" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y42" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>927.4090418523174</v>
+        <v>692.7936626747511</v>
       </c>
       <c r="C43" t="n">
-        <v>756.3156694140339</v>
+        <v>521.7002902364676</v>
       </c>
       <c r="D43" t="n">
-        <v>596.8210247369439</v>
+        <v>362.2056455593776</v>
       </c>
       <c r="E43" t="n">
-        <v>435.9102096052633</v>
+        <v>201.2948304276971</v>
       </c>
       <c r="F43" t="n">
-        <v>271.2790837158546</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>104.028692641398</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
         <v>93.2436976906228</v>
@@ -7600,19 +7602,19 @@
         <v>1622.642594311473</v>
       </c>
       <c r="U43" t="n">
-        <v>1339.844446857597</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V43" t="n">
-        <v>1339.844446857597</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W43" t="n">
-        <v>1339.844446857597</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="X43" t="n">
-        <v>1339.844446857597</v>
+        <v>1105.229067680031</v>
       </c>
       <c r="Y43" t="n">
-        <v>1115.108748246362</v>
+        <v>880.4933690687955</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>41.76508562960205</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C44" t="n">
-        <v>41.76508562960205</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D44" t="n">
-        <v>41.76508562960205</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E44" t="n">
-        <v>41.76508562960205</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F44" t="n">
-        <v>41.76508562960205</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G44" t="n">
-        <v>41.76508562960205</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H44" t="n">
-        <v>41.76508562960205</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960205</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J44" t="n">
-        <v>41.76508562960205</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>558.6080202959273</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>1075.450954962253</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>1075.450954962253</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>1592.293889628578</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>2088.254281480102</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>2088.254281480102</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>1987.1641917054</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>1987.1641917054</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>1987.1641917054</v>
+        <v>4183.681998679601</v>
       </c>
       <c r="V44" t="n">
-        <v>1637.32663704188</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W44" t="n">
-        <v>1253.566336177049</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X44" t="n">
-        <v>852.9229383460014</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y44" t="n">
-        <v>451.9862652940915</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.5959275161366</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>586.6008562650824</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>469.7036984844747</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>349.2108824768027</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>240.2510026593072</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>133.260889973646</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936203</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>234.5779431922353</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>234.5779431922353</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>751.4208778585605</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M45" t="n">
-        <v>1054.568412147452</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N45" t="n">
-        <v>1054.568412147452</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O45" t="n">
-        <v>1571.411346813777</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>2088.254281480102</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2088.254281480102</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1409.860069912672</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1196.626901649001</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.8989601517233</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>777.1526093285881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>777.1526093285881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>777.1526093285881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>639.6001036836846</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>474.9689777942758</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>307.7185867198193</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>158.1111315252759</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1485.891263925851</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1299.499495805762</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1059.950756782464</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U46" t="n">
-        <v>777.1526093285881</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V46" t="n">
-        <v>777.1526093285881</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W46" t="n">
-        <v>777.1526093285881</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X46" t="n">
-        <v>777.1526093285881</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y46" t="n">
-        <v>777.1526093285881</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7981,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>228.888951090043</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>553.1935596277625</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8058,10 +8060,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>332.1773130131622</v>
       </c>
       <c r="L3" t="n">
-        <v>531.0094776201749</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
         <v>579.627854108443</v>
@@ -8070,16 +8072,16 @@
         <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>296.1630732760185</v>
+        <v>269.4773261669552</v>
       </c>
       <c r="O5" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>175.2980289959028</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>73.48479305079361</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,28 +8455,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>316.0490238743891</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>494.5586588013271</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8535,19 +8537,19 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>265.3595799407149</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>455.0735895620846</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>410.0708656603775</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
-        <v>594.1598684051008</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,28 +8768,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700256</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P12" t="n">
-        <v>68.74422894819149</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>594.1598684051008</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9008,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>98.1240166537967</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700256</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O17" t="n">
-        <v>594.1598684051008</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P17" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,25 +9245,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>265.3595799407149</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>579.627854108443</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P18" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9486,13 +9488,13 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>75.97815626606008</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
         <v>621.6393243851574</v>
@@ -9714,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M24" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9951,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10191,13 +10193,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M30" t="n">
-        <v>694.8191058394766</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
         <v>53.19339339374999</v>
@@ -10209,7 +10211,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10425,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10665,25 +10667,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>531.1743980747688</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10899,28 +10901,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M39" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11075,7 +11077,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
@@ -11136,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476421</v>
       </c>
       <c r="M42" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>611.1999600432426</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>594.1598684051008</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,28 +11378,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>578.1780941808746</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M45" t="n">
-        <v>363.7739143332572</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>576.3232053728293</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>278.8103707566239</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>305.6825420700305</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,19 +22603,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -22702,25 +22704,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -22750,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>142.8697923881225</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>93.42449318090726</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22781,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>374.2994940707571</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>8.679892817457983</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -22835,19 +22837,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22939,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22993,22 +22995,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="8">
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23084,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>154.3150748581473</v>
+        <v>396.3790745923825</v>
       </c>
     </row>
     <row r="9">
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300493</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23261,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>394.5200935242082</v>
+        <v>308.5558614412301</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,16 +23311,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176243</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>96.14494677818635</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.362559071250018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23671,7 +23673,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>8.893130557884689</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>170.5352159497217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23729,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>17.77593127592985</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>49.19646844041392</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23896,10 +23898,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>141.6787286049698</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23981,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24130,16 +24132,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
@@ -24175,13 +24177,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>4.860265178597814</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>166.7928287882034</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>134.6847134965115</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24215,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>187.9942390719857</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24260,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>35.62229039648869</v>
       </c>
       <c r="H25" t="n">
-        <v>93.42449318090684</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
@@ -24418,19 +24420,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24458,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,16 +24496,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>49.19646844041375</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24601,25 +24603,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>71.44291527227026</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,22 +24654,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24686,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>37.84312462897441</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>32.28731256679784</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>21.30520108346087</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -24895,7 +24897,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -24904,7 +24906,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>55.77178734885044</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>45.55681957367977</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24926,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>37.84312462897441</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25087,10 +25089,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>33.5160719340583</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>5.21491632419503</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -25163,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25309,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
@@ -25363,16 +25365,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>221.5920803845231</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25406,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25454,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>134.6847134965117</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25549,22 +25551,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>35.51388323829889</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>41.88054861921404</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25679,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>137.0114616263634</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25795,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>56.01419322081109</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>137.4342356413304</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -25840,16 +25842,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25865,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>33.84907557688456</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>23.12472639190918</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>513987.1619076714</v>
+        <v>513987.1619076713</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>513987.1619076714</v>
+        <v>744844.5413560406</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>513987.1619076713</v>
+        <v>782541.0272050822</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>513987.1619076713</v>
+        <v>782541.0272050825</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>513987.1619076714</v>
+        <v>782541.0272050824</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>782541.0272050822</v>
+        <v>782541.0272050824</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>782541.0272050824</v>
+        <v>782541.0272050822</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>782541.0272050822</v>
+        <v>782541.0272050824</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>782541.0272050822</v>
+        <v>782541.0272050825</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>782541.0272050822</v>
+        <v>782541.0272050824</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>513987.1619076714</v>
+        <v>782541.0272050824</v>
       </c>
     </row>
   </sheetData>
@@ -26317,22 +26319,22 @@
         <v>171233.1127674947</v>
       </c>
       <c r="D2" t="n">
-        <v>171233.1127674947</v>
+        <v>248127.7476740417</v>
       </c>
       <c r="E2" t="n">
-        <v>171233.1127674947</v>
+        <v>260683.8007815845</v>
       </c>
       <c r="F2" t="n">
-        <v>171233.1127674947</v>
+        <v>260683.8007815845</v>
       </c>
       <c r="G2" t="n">
-        <v>171233.1127674947</v>
+        <v>260683.8007815845</v>
       </c>
       <c r="H2" t="n">
         <v>260683.8007815845</v>
       </c>
       <c r="I2" t="n">
-        <v>260683.8007815845</v>
+        <v>260683.8007815844</v>
       </c>
       <c r="J2" t="n">
         <v>260683.8007815845</v>
@@ -26341,7 +26343,7 @@
         <v>260683.8007815845</v>
       </c>
       <c r="L2" t="n">
-        <v>260683.8007815844</v>
+        <v>260683.8007815845</v>
       </c>
       <c r="M2" t="n">
         <v>260683.8007815845</v>
@@ -26353,7 +26355,7 @@
         <v>260683.8007815845</v>
       </c>
       <c r="P2" t="n">
-        <v>171233.1127674947</v>
+        <v>260683.8007815845</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100687</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>26968.954180934</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>173617.4105196494</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647529</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>22509.26477404724</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,16 +26423,16 @@
         <v>19747.62995624142</v>
       </c>
       <c r="D4" t="n">
-        <v>19747.62995624142</v>
+        <v>28726.47269946982</v>
       </c>
       <c r="E4" t="n">
-        <v>19747.62995624142</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="F4" t="n">
-        <v>19747.62995624142</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="G4" t="n">
-        <v>19747.62995624142</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="H4" t="n">
         <v>30192.61954398331</v>
@@ -26457,7 +26459,7 @@
         <v>30192.61954398331</v>
       </c>
       <c r="P4" t="n">
-        <v>19747.62995624142</v>
+        <v>30192.61954398331</v>
       </c>
     </row>
     <row r="5">
@@ -26473,16 +26475,16 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>99001.07135520031</v>
       </c>
       <c r="E5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="H5" t="n">
         <v>70865.21024487332</v>
@@ -26509,7 +26511,7 @@
         <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-88839.09216035833</v>
+        <v>-88839.09216035838</v>
       </c>
       <c r="C6" t="n">
         <v>86116.41773275574</v>
       </c>
       <c r="D6" t="n">
-        <v>86116.41773275577</v>
+        <v>-51427.26529069713</v>
       </c>
       <c r="E6" t="n">
-        <v>119744.0177327557</v>
+        <v>132657.0168117938</v>
       </c>
       <c r="F6" t="n">
-        <v>119744.0177327557</v>
+        <v>159625.9709927278</v>
       </c>
       <c r="G6" t="n">
-        <v>119744.0177327557</v>
+        <v>159625.9709927278</v>
       </c>
       <c r="H6" t="n">
-        <v>-13991.43952692153</v>
+        <v>159625.9709927279</v>
       </c>
       <c r="I6" t="n">
-        <v>159625.9709927279</v>
+        <v>159625.9709927277</v>
       </c>
       <c r="J6" t="n">
         <v>23031.17018683288</v>
@@ -26549,19 +26551,19 @@
         <v>159625.9709927278</v>
       </c>
       <c r="L6" t="n">
-        <v>159625.9709927278</v>
+        <v>19626.66012797496</v>
       </c>
       <c r="M6" t="n">
-        <v>159625.9709927278</v>
+        <v>137116.7062186807</v>
       </c>
       <c r="N6" t="n">
         <v>159625.9709927278</v>
       </c>
       <c r="O6" t="n">
-        <v>159625.9709927279</v>
+        <v>159625.9709927278</v>
       </c>
       <c r="P6" t="n">
-        <v>119744.0177327557</v>
+        <v>159625.9709927278</v>
       </c>
     </row>
   </sheetData>
@@ -26793,16 +26795,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="H4" t="n">
         <v>1165.546221132785</v>
@@ -26829,7 +26831,7 @@
         <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720848</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>90.32465279067446</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,7 +27029,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>643.4826507627594</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720848</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067446</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720848</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067446</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>643.4826507627594</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>135.5987266329976</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34778,10 +34780,10 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>276.3515302285468</v>
       </c>
       <c r="L3" t="n">
-        <v>474.8949538093258</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>522.0635703700256</v>
@@ -34790,16 +34792,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>203.2507825193992</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="O5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>117.7337452574854</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>226.912634201172</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>400.9092955204429</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35255,19 +35257,19 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>209.2450561298658</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>401.8801961683346</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>353.3782471555388</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
-        <v>500.9700927793177</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>522.0635703700256</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P12" t="n">
-        <v>14.48459394538775</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>500.9700927793177</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>40.55973291537929</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700256</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L17" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N17" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O17" t="n">
-        <v>500.9700927793177</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>209.2450561298658</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>522.0635703700256</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P18" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>18.22667726606008</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>567.3796893823536</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M24" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,13 +36913,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M30" t="n">
-        <v>637.2548221010592</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36929,7 +36931,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>473.6101143363514</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M39" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37795,7 +37797,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>461.373944936793</v>
       </c>
       <c r="M42" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>522.0635703700256</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>500.9700927793177</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>522.0635703700256</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M45" t="n">
-        <v>306.2096305948398</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>522.0635703700256</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>717960.8392729287</v>
+        <v>715147.8400087154</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029737</v>
+        <v>5301029.811029743</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3772361.273823851</v>
+        <v>3772361.273823854</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8486986.838937877</v>
+        <v>8486986.838937879</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>138.0097371692254</v>
+        <v>192.8971741468633</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>142.5359303380062</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>129.1752199258839</v>
       </c>
     </row>
     <row r="5">
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>412.6522682352713</v>
       </c>
       <c r="G5" t="n">
-        <v>395.9611084486381</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1135,7 +1135,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>306.8981218803716</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
@@ -1153,7 +1153,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -1198,10 +1198,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.5482317290083301</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="11">
@@ -1384,10 +1384,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>96.08513982486603</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>85.2997057160983</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1593,10 +1593,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>343.4619167409753</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -1660,16 +1660,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>123.8394724344234</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>65.42520756919177</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>172.2020311948487</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>361.0003448878583</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1861,7 +1861,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>369.2659961340943</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>228.2601210751805</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>31.42227043795236</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>165.9184445944652</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>55.69551283691951</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="23">
@@ -2329,7 +2329,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>228.8258688538636</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
@@ -2338,7 +2338,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>129.9555967672233</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>330.7262294157694</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>228.2601210751805</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="29">
@@ -2800,7 +2800,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -2812,7 +2812,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>101.6409518870423</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>166.7165542762725</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="32">
@@ -3040,16 +3040,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>378.9769832968749</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>39.93142548241837</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>114.5953087085396</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>300.4920170745502</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>228.2601210751805</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="38">
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>31.42227043795236</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>251.4066896505621</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3663,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>123.7878237420648</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="41">
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>31.42227043795236</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>117.4784251967216</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>106.9706214097036</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="44">
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>228.2601210751805</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1080.712837245046</v>
+        <v>1141.815353557804</v>
       </c>
       <c r="C2" t="n">
-        <v>1080.712837245046</v>
+        <v>731.6907628710738</v>
       </c>
       <c r="D2" t="n">
-        <v>676.2489073381062</v>
+        <v>731.6907628710738</v>
       </c>
       <c r="E2" t="n">
-        <v>676.2489073381062</v>
+        <v>731.6907628710738</v>
       </c>
       <c r="F2" t="n">
         <v>536.8451324196967</v>
@@ -4333,49 +4333,49 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L2" t="n">
         <v>558.6080202959273</v>
       </c>
       <c r="M2" t="n">
+        <v>558.6080202959273</v>
+      </c>
+      <c r="N2" t="n">
         <v>1075.450954962253</v>
       </c>
-      <c r="N2" t="n">
-        <v>1592.293889628578</v>
-      </c>
       <c r="O2" t="n">
-        <v>2047.697635790537</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>1831.193789739612</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>1481.356235076093</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W2" t="n">
-        <v>1481.356235076093</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X2" t="n">
-        <v>1080.712837245046</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y2" t="n">
-        <v>1080.712837245046</v>
+        <v>1552.036533222293</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922353</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>508.1659581184966</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>508.1659581184966</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="M3" t="n">
-        <v>1025.008892784822</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.851827451147</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="O3" t="n">
-        <v>2058.694762117472</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4448,13 +4448,13 @@
         <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1014.752890035065</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>843.6595175967814</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>684.1648729196913</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>523.2540577880108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>358.622931898602</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.163982250452</v>
+        <v>689.6586323881997</v>
       </c>
       <c r="W4" t="n">
-        <v>1571.163982250452</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="X4" t="n">
-        <v>1427.188295040345</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="Y4" t="n">
-        <v>1202.452596429109</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1277.096428763703</v>
+        <v>1277.389703984565</v>
       </c>
       <c r="C5" t="n">
-        <v>1277.096428763703</v>
+        <v>1277.389703984565</v>
       </c>
       <c r="D5" t="n">
-        <v>1277.096428763703</v>
+        <v>872.9257740776259</v>
       </c>
       <c r="E5" t="n">
-        <v>862.7562132805995</v>
+        <v>458.5855585945226</v>
       </c>
       <c r="F5" t="n">
-        <v>441.725801234287</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G5" t="n">
         <v>41.76508562960205</v>
@@ -4567,28 +4567,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>1075.450954962253</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.450954962253</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N5" t="n">
-        <v>1250.250340018485</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O5" t="n">
-        <v>1767.09327468481</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4609,10 +4609,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y5" t="n">
-        <v>1687.317608428192</v>
+        <v>1687.610883649055</v>
       </c>
     </row>
     <row r="6">
@@ -4652,22 +4652,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1207.227134123859</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1724.070068790184</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1724.070068790184</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O6" t="n">
-        <v>1724.070068790184</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P6" t="n">
-        <v>1724.070068790184</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2073.914533474168</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,7 +4682,7 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
         <v>1196.626901649</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2541.96541775283</v>
+        <v>2355.48716729264</v>
       </c>
       <c r="C8" t="n">
-        <v>2131.840827066101</v>
+        <v>2045.489064383174</v>
       </c>
       <c r="D8" t="n">
-        <v>1727.376897159161</v>
+        <v>1641.025134476234</v>
       </c>
       <c r="E8" t="n">
-        <v>1313.036681676058</v>
+        <v>1226.684918993131</v>
       </c>
       <c r="F8" t="n">
-        <v>892.0062696297455</v>
+        <v>805.6545069468186</v>
       </c>
       <c r="G8" t="n">
-        <v>483.2779855225777</v>
+        <v>396.9262228396508</v>
       </c>
       <c r="H8" t="n">
-        <v>172.3694881502957</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I8" t="n">
-        <v>86.01772546736883</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
         <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>564.8467047942834</v>
+        <v>524.2900591047148</v>
       </c>
       <c r="L8" t="n">
-        <v>1277.438104606521</v>
+        <v>1236.881458916953</v>
       </c>
       <c r="M8" t="n">
-        <v>2053.756695598275</v>
+        <v>2013.200049908707</v>
       </c>
       <c r="N8" t="n">
-        <v>2806.937712236893</v>
+        <v>2766.381066547325</v>
       </c>
       <c r="O8" t="n">
-        <v>3450.568568653998</v>
+        <v>3410.01192296443</v>
       </c>
       <c r="P8" t="n">
-        <v>3979.72526657315</v>
+        <v>3939.168620883581</v>
       </c>
       <c r="Q8" t="n">
-        <v>4300.886273368442</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="R8" t="n">
-        <v>4300.886273368442</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>4165.605198162542</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="T8" t="n">
-        <v>3943.398714109401</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="U8" t="n">
-        <v>3686.338222368911</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="V8" t="n">
-        <v>3336.500667705392</v>
+        <v>3951.048718704919</v>
       </c>
       <c r="W8" t="n">
-        <v>2952.74036684056</v>
+        <v>3567.288417840087</v>
       </c>
       <c r="X8" t="n">
-        <v>2952.74036684056</v>
+        <v>3166.64502000904</v>
       </c>
       <c r="Y8" t="n">
-        <v>2952.18659741732</v>
+        <v>2765.70834695713</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>764.8485673539033</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>630.8534961028489</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>513.9563383222413</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>393.4635223145693</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>284.5036424970739</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>177.5135298114126</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>106.7663168471287</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>86.01772546736883</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>86.01772546736883</v>
+        <v>278.830583030002</v>
       </c>
       <c r="K9" t="n">
-        <v>541.8239817326676</v>
+        <v>734.6368392953007</v>
       </c>
       <c r="L9" t="n">
-        <v>541.8239817326676</v>
+        <v>734.6368392953007</v>
       </c>
       <c r="M9" t="n">
-        <v>1384.801062427234</v>
+        <v>1577.613919989867</v>
       </c>
       <c r="N9" t="n">
-        <v>1782.662456633886</v>
+        <v>1577.613919989867</v>
       </c>
       <c r="O9" t="n">
-        <v>1782.662456633886</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="P9" t="n">
-        <v>1782.662456633886</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="Q9" t="n">
         <v>2132.506921317869</v>
@@ -4910,16 +4910,16 @@
         <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>2024.516911432178</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
         <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1667.824236757405</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1454.112709750439</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
         <v>1240.879541486767</v>
@@ -4928,7 +4928,7 @@
         <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>905.1515999894899</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1175.351575768505</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="C10" t="n">
-        <v>1004.258203330222</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="D10" t="n">
-        <v>844.7635586531319</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="E10" t="n">
-        <v>683.8527435214514</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="F10" t="n">
-        <v>519.2216176320427</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="G10" t="n">
-        <v>351.9712265575861</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H10" t="n">
-        <v>202.3637713630427</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I10" t="n">
-        <v>86.01772546736883</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
         <v>100.1002748725793</v>
@@ -4968,10 +4968,10 @@
         <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>514.5497028748779</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>803.8137593153712</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
         <v>1084.652541709621</v>
@@ -4992,22 +4992,22 @@
         <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.416622088219</v>
+        <v>1375.867883064921</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.416622088219</v>
+        <v>1093.069735611045</v>
       </c>
       <c r="V10" t="n">
-        <v>1615.416622088219</v>
+        <v>819.1839905505669</v>
       </c>
       <c r="W10" t="n">
-        <v>1615.416622088219</v>
+        <v>540.1143260594413</v>
       </c>
       <c r="X10" t="n">
-        <v>1587.786980773785</v>
+        <v>301.7704639191247</v>
       </c>
       <c r="Y10" t="n">
-        <v>1363.05128216255</v>
+        <v>86.01772546736876</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2237.518802661711</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C11" t="n">
-        <v>1827.394211974981</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D11" t="n">
-        <v>1422.930282068041</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E11" t="n">
-        <v>1008.590066584938</v>
+        <v>1095.51547543218</v>
       </c>
       <c r="F11" t="n">
-        <v>587.5596545386256</v>
+        <v>674.4850633858673</v>
       </c>
       <c r="G11" t="n">
-        <v>490.5039577458317</v>
+        <v>265.7567792786995</v>
       </c>
       <c r="H11" t="n">
         <v>179.5954603735497</v>
@@ -5068,25 +5068,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>4439.978400477999</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U11" t="n">
-        <v>4182.917908737509</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V11" t="n">
-        <v>3833.080354073989</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W11" t="n">
-        <v>3449.320053209158</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X11" t="n">
-        <v>3048.67665537811</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y11" t="n">
-        <v>2647.7399823262</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M12" t="n">
-        <v>936.2207783851894</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N12" t="n">
-        <v>1809.878870496807</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O12" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P12" t="n">
         <v>2139.732893541123</v>
@@ -5223,25 +5223,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U13" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V13" t="n">
-        <v>554.7454763291312</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W13" t="n">
-        <v>275.6758118380055</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X13" t="n">
-        <v>93.2436976906228</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y13" t="n">
         <v>93.2436976906228</v>
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2549.191389976085</v>
+        <v>2485.998028320643</v>
       </c>
       <c r="C14" t="n">
         <v>2139.066799289355</v>
@@ -5278,10 +5278,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5308,22 +5308,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>4401.813433128853</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>4144.752941388363</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W14" t="n">
-        <v>3760.992640523532</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X14" t="n">
-        <v>3360.349242692484</v>
+        <v>3297.155881037042</v>
       </c>
       <c r="Y14" t="n">
-        <v>2959.412569640574</v>
+        <v>2896.219207985132</v>
       </c>
     </row>
     <row r="15">
@@ -5363,22 +5363,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M15" t="n">
-        <v>562.1177108836107</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N15" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O15" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>209.5897435862967</v>
+        <v>425.2478852605868</v>
       </c>
       <c r="C16" t="n">
-        <v>209.5897435862967</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="D16" t="n">
-        <v>209.5897435862967</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E16" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F16" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U16" t="n">
-        <v>828.6312213896092</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V16" t="n">
-        <v>554.7454763291312</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W16" t="n">
-        <v>275.6758118380055</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="X16" t="n">
-        <v>209.5897435862967</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="Y16" t="n">
-        <v>209.5897435862967</v>
+        <v>612.9475916546312</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>923.0023938441032</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
         <v>93.2436976906228</v>
@@ -5551,16 +5551,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="18">
@@ -5594,19 +5594,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O18" t="n">
         <v>2139.732893541123</v>
@@ -5703,19 +5703,19 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1392.076815447654</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1109.278667993779</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>835.3929229333004</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>556.3232584421747</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>317.9793963018581</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
         <v>93.2436976906228</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4630.445217422097</v>
       </c>
       <c r="T20" t="n">
-        <v>4662.18488453114</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U20" t="n">
-        <v>4494.590496051882</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V20" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="21">
@@ -5840,16 +5840,16 @@
         <v>1210.13812587521</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.182536368609</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N21" t="n">
-        <v>1228.182536368609</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O21" t="n">
-        <v>1228.182536368609</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P21" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>252.7383423677128</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>252.7383423677128</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
         <v>93.2436976906228</v>
@@ -5955,7 +5955,7 @@
         <v>308.996436142379</v>
       </c>
       <c r="Y22" t="n">
-        <v>252.7383423677128</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2359.298219196301</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.173628509571</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1544.709698602632</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>1130.369483119528</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>3954.85977060858</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3571.099469743748</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>3170.456071912701</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2769.519398860791</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6074,19 +6074,19 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>1228.182536368609</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.182536368609</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N24" t="n">
-        <v>1228.182536368609</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O24" t="n">
-        <v>1228.182536368609</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P24" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>975.5020640418711</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>975.5020640418711</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>816.0074193647811</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>655.0966042331006</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>490.4654783436919</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6171,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>1537.369875986873</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>1254.571728532997</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>1254.571728532997</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>975.5020640418711</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>975.5020640418711</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y25" t="n">
-        <v>975.5020640418711</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2151.931129920876</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C26" t="n">
-        <v>1741.806539234146</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D26" t="n">
-        <v>1337.342609327206</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E26" t="n">
-        <v>923.0023938441032</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
         <v>93.2436976906228</v>
@@ -6226,7 +6226,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
         <v>885.5886702674165</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W26" t="n">
-        <v>3363.732380468323</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X26" t="n">
-        <v>2963.088982637275</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y26" t="n">
-        <v>2562.152309585365</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="27">
@@ -6311,19 +6311,19 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>1228.182536368609</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.182536368609</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N27" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O27" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P27" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6414,19 +6414,19 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1392.076815447654</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>1109.278667993779</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>835.3929229333004</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>556.3232584421747</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X28" t="n">
-        <v>317.9793963018581</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y28" t="n">
         <v>93.2436976906228</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2134.851174492981</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C29" t="n">
-        <v>1724.726583806251</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1320.262653899312</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4559.51725636241</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4337.310772309269</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4080.250280568779</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V29" t="n">
-        <v>3730.41272590526</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W29" t="n">
-        <v>3346.652425040428</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X29" t="n">
-        <v>2946.009027209381</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y29" t="n">
-        <v>2545.072354157471</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="30">
@@ -6542,19 +6542,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>1228.182536368609</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.182536368609</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="N30" t="n">
-        <v>1228.182536368609</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O30" t="n">
         <v>1228.182536368609</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4222.119838211426</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>4390.520398086449</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>4390.520398086449</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>4390.520398086449</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>4390.520398086449</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>4390.520398086449</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y31" t="n">
-        <v>4222.119838211426</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2503.174400507722</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>2093.049809820992</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1688.585879914052</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>1274.245664430949</v>
       </c>
       <c r="F32" t="n">
-        <v>490.5039577458317</v>
+        <v>853.2152523846366</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>444.4869682774688</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>133.5784709051868</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
         <v>885.5886702674165</v>
@@ -6745,7 +6745,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="33">
@@ -6785,19 +6785,19 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>1228.182536368609</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.182536368609</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N33" t="n">
-        <v>1228.182536368609</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O33" t="n">
-        <v>1228.182536368609</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P33" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3586.882588502363</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>3415.789216064079</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>3415.789216064079</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3415.789216064079</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3415.789216064079</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3248.538824989622</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4422.636145507842</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>4139.837998053967</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>3865.952252993488</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>3586.882588502363</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>3586.882588502363</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y34" t="n">
-        <v>3586.882588502363</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>4058.401178705436</v>
+        <v>3744.109543557316</v>
       </c>
       <c r="W35" t="n">
-        <v>3674.640877840605</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="X35" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y35" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="36">
@@ -7019,16 +7019,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>1210.13812587521</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.182536368609</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N36" t="n">
-        <v>1228.182536368609</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O36" t="n">
         <v>1228.182536368609</v>
@@ -7125,19 +7125,19 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1392.076815447654</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>1109.278667993779</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>835.3929229333004</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>556.3232584421747</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>317.9793963018581</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y37" t="n">
         <v>93.2436976906228</v>
@@ -7165,19 +7165,19 @@
         <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>404.1521950629049</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7201,10 +7201,10 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4630.445217422097</v>
       </c>
       <c r="T38" t="n">
-        <v>4662.18488453114</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U38" t="n">
         <v>4408.238733368956</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C39" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D39" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E39" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F39" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G39" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H39" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I39" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>2808.508546243273</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>3264.314802508572</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>3750.634527358626</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M39" t="n">
-        <v>3750.634527358626</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N39" t="n">
-        <v>3750.634527358626</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O39" t="n">
-        <v>3750.634527358626</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P39" t="n">
-        <v>4312.340419847156</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S39" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T39" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U39" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V39" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W39" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X39" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y39" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>870.8642480873805</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>699.770875649097</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>699.770875649097</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>574.7326698490315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
         <v>93.2436976906228</v>
@@ -7365,19 +7365,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1383.093855288175</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>1109.208110227697</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W40" t="n">
-        <v>1109.208110227697</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X40" t="n">
-        <v>870.8642480873805</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y40" t="n">
-        <v>870.8642480873805</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="41">
@@ -7414,7 +7414,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7438,10 +7438,10 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4630.445217422097</v>
       </c>
       <c r="T41" t="n">
-        <v>4526.90380932524</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U41" t="n">
         <v>4408.238733368956</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>2808.508546243273</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>3264.314802508572</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>3721.075007995997</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M42" t="n">
-        <v>3721.075007995997</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N42" t="n">
-        <v>3721.075007995997</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O42" t="n">
-        <v>3721.075007995997</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
-        <v>4282.780900484527</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>4632.62536516851</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>692.7936626747511</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C43" t="n">
-        <v>521.7002902364676</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>362.2056455593776</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>201.2948304276971</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
         <v>93.2436976906228</v>
@@ -7599,22 +7599,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V43" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W43" t="n">
-        <v>1343.572929820347</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X43" t="n">
-        <v>1105.229067680031</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y43" t="n">
-        <v>880.4933690687955</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="44">
@@ -7645,7 +7645,7 @@
         <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
         <v>347.4291691583771</v>
@@ -7733,22 +7733,22 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>1198.623017005979</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.623017005979</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N45" t="n">
-        <v>1198.623017005979</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O45" t="n">
-        <v>1198.623017005979</v>
+        <v>2106.908073983737</v>
       </c>
       <c r="P45" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7836,19 +7836,19 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1392.076815447654</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>1109.278667993779</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>835.3929229333004</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W46" t="n">
-        <v>556.3232584421747</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X46" t="n">
-        <v>317.9793963018581</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y46" t="n">
         <v>93.2436976906228</v>
@@ -7981,28 +7981,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>553.1935596277625</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,28 +8060,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>332.1773130131622</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>70.59911775623704</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>611.1999600432426</v>
@@ -8227,19 +8227,19 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>269.4773261669552</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,25 +8300,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>564.4415429491204</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>73.48479305079361</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>316.0490238743891</v>
+        <v>275.0827150970472</v>
       </c>
       <c r="L8" t="n">
         <v>815.2746908024792</v>
@@ -8476,7 +8476,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
@@ -8543,16 +8543,16 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>455.0735895620846</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>618.2494601393952</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8768,25 +8768,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>234.4087459755385</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -9011,25 +9011,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>501.9723301574554</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,22 +9242,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>797.4175450132245</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9424,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9488,19 +9488,19 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>75.79096100447751</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>57.751479</v>
+        <v>429.3564034215989</v>
       </c>
       <c r="P21" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9722,7 +9722,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>547.3465691139345</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
         <v>57.56428373841742</v>
@@ -9731,13 +9731,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>57.751479</v>
+        <v>234.5959412371211</v>
       </c>
       <c r="P24" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9959,22 +9959,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>547.3465691139345</v>
+        <v>585.6215843269604</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
         <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10190,22 +10190,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>547.3465691139345</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>492.8993828617429</v>
       </c>
       <c r="N30" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
         <v>621.6393243851574</v>
@@ -10433,7 +10433,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>547.3465691139345</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
@@ -10442,13 +10442,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>234.5959412371211</v>
       </c>
       <c r="P33" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10667,19 +10667,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>75.79096100447751</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>488.5284925170755</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
@@ -10901,28 +10901,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>547.3465691139345</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>745.8914891781321</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11062,7 +11062,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11138,22 +11138,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>517.4884687476421</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
         <v>621.6393243851574</v>
@@ -11381,7 +11381,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>517.4884687476416</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
@@ -11390,16 +11390,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>87.41601839410231</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>278.8103707566239</v>
+        <v>223.922933778986</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,25 +22704,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>93.42449318090726</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>93.31312169923908</v>
       </c>
     </row>
     <row r="5">
@@ -22789,16 +22789,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4.167839690577978</v>
       </c>
       <c r="G5" t="n">
-        <v>8.679892817457983</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -22849,10 +22849,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -23023,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>99.12522289949095</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23086,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.3790745923825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23232,22 +23232,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>8.893130557884604</v>
       </c>
     </row>
     <row r="11">
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>308.5558614412301</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>222.4997066824609</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>62.56142803888724</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>96.14494677818635</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>162.9848146305146</v>
@@ -23673,7 +23673,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>170.5352159497217</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>50.28631043027426</v>
       </c>
     </row>
     <row r="17">
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>49.19646844041392</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -23791,10 +23791,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>10.65670172208877</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>8.893130557884461</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="20">
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>102.5059940158878</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>88.57144222861982</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>166.7928287882034</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="23">
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>187.9942390719857</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>35.62229039648869</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="26">
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>49.19646844041375</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>8.893130557884461</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="29">
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>32.28731256679784</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.77178734885044</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="32">
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>37.84312462897441</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>45.5568195736792</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25089,10 +25089,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>33.5160719340583</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="35">
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>45.84716204233393</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>8.893130557884461</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="38">
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>102.5059940158878</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>3.083197172522915</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>35.51388323829889</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="41">
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>102.5059940158878</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>137.0114616263634</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>56.01419322081109</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25839,13 +25839,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="44">
@@ -26076,7 +26076,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>8.893130557884461</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>744844.5413560406</v>
+        <v>744844.5413560402</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>782541.0272050822</v>
+        <v>782541.0272050824</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>782541.0272050824</v>
+        <v>782541.0272050825</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>782541.0272050824</v>
+        <v>782541.0272050825</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>782541.0272050822</v>
+        <v>782541.0272050825</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>782541.0272050824</v>
+        <v>782541.0272050825</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>782541.0272050822</v>
+        <v>782541.0272050825</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>782541.0272050824</v>
+        <v>782541.0272050825</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>782541.0272050824</v>
+        <v>782541.0272050825</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>782541.0272050824</v>
+        <v>782541.0272050825</v>
       </c>
     </row>
     <row r="16">
@@ -26319,22 +26319,22 @@
         <v>171233.1127674947</v>
       </c>
       <c r="D2" t="n">
-        <v>248127.7476740417</v>
+        <v>248127.7476740416</v>
       </c>
       <c r="E2" t="n">
         <v>260683.8007815845</v>
       </c>
       <c r="F2" t="n">
+        <v>260683.8007815846</v>
+      </c>
+      <c r="G2" t="n">
+        <v>260683.8007815844</v>
+      </c>
+      <c r="H2" t="n">
+        <v>260683.8007815844</v>
+      </c>
+      <c r="I2" t="n">
         <v>260683.8007815845</v>
-      </c>
-      <c r="G2" t="n">
-        <v>260683.8007815845</v>
-      </c>
-      <c r="H2" t="n">
-        <v>260683.8007815845</v>
-      </c>
-      <c r="I2" t="n">
-        <v>260683.8007815844</v>
       </c>
       <c r="J2" t="n">
         <v>260683.8007815845</v>
@@ -26349,13 +26349,13 @@
         <v>260683.8007815845</v>
       </c>
       <c r="N2" t="n">
+        <v>260683.8007815845</v>
+      </c>
+      <c r="O2" t="n">
         <v>260683.8007815844</v>
       </c>
-      <c r="O2" t="n">
-        <v>260683.8007815845</v>
-      </c>
       <c r="P2" t="n">
-        <v>260683.8007815845</v>
+        <v>260683.8007815844</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>171827.4689100687</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>26968.954180934</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>139999.3108647529</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>22509.26477404724</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>19747.62995624142</v>
       </c>
       <c r="D4" t="n">
-        <v>28726.47269946982</v>
+        <v>28726.47269946981</v>
       </c>
       <c r="E4" t="n">
         <v>30192.61954398331</v>
       </c>
       <c r="F4" t="n">
+        <v>30192.61954398331</v>
+      </c>
+      <c r="G4" t="n">
         <v>30192.61954398332</v>
-      </c>
-      <c r="G4" t="n">
-        <v>30192.61954398331</v>
       </c>
       <c r="H4" t="n">
         <v>30192.61954398331</v>
       </c>
       <c r="I4" t="n">
-        <v>30192.61954398331</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="J4" t="n">
         <v>30192.61954398331</v>
@@ -26475,7 +26475,7 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>99001.07135520031</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-88839.09216035838</v>
+        <v>-89516.62101975243</v>
       </c>
       <c r="C6" t="n">
-        <v>86116.41773275574</v>
+        <v>85438.88887336169</v>
       </c>
       <c r="D6" t="n">
-        <v>-51427.26529069713</v>
+        <v>-51677.60173394353</v>
       </c>
       <c r="E6" t="n">
-        <v>132657.0168117938</v>
+        <v>132476.4362191445</v>
       </c>
       <c r="F6" t="n">
-        <v>159625.9709927278</v>
+        <v>159445.3904000789</v>
       </c>
       <c r="G6" t="n">
-        <v>159625.9709927278</v>
+        <v>159445.3904000787</v>
       </c>
       <c r="H6" t="n">
-        <v>159625.9709927279</v>
+        <v>159445.3904000787</v>
       </c>
       <c r="I6" t="n">
-        <v>159625.9709927277</v>
+        <v>159445.3904000788</v>
       </c>
       <c r="J6" t="n">
-        <v>23031.17018683288</v>
+        <v>22850.58959418375</v>
       </c>
       <c r="K6" t="n">
-        <v>159625.9709927278</v>
+        <v>159445.3904000788</v>
       </c>
       <c r="L6" t="n">
-        <v>19626.66012797496</v>
+        <v>19446.07953532599</v>
       </c>
       <c r="M6" t="n">
-        <v>137116.7062186807</v>
+        <v>136936.1256260313</v>
       </c>
       <c r="N6" t="n">
-        <v>159625.9709927278</v>
+        <v>159445.3904000788</v>
       </c>
       <c r="O6" t="n">
-        <v>159625.9709927278</v>
+        <v>159445.3904000787</v>
       </c>
       <c r="P6" t="n">
-        <v>159625.9709927278</v>
+        <v>159445.3904000787</v>
       </c>
     </row>
   </sheetData>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>553.1579979720848</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>90.32465279067446</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720848</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067446</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720848</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067446</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>460.0037840019794</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,28 +34780,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>276.3515302285468</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>14.48459394538798</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>522.0635703700256</v>
@@ -34947,19 +34947,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>176.5650354103359</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35020,25 +35020,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>506.6900639491204</v>
+      </c>
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>14.48459394538821</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>226.912634201172</v>
+        <v>185.9463254238301</v>
       </c>
       <c r="L8" t="n">
         <v>719.7892927396343</v>
@@ -35196,7 +35196,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
@@ -35263,16 +35263,16 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>401.8801961683346</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>560.4979811393952</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35731,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>448.7789367637054</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>18.22667726606008</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="P21" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>491.2320453030855</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36451,13 +36451,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="P24" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>491.2320453030855</v>
+        <v>529.5070605161113</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>491.2320453030855</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>435.3350991233255</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
         <v>567.3796893823536</v>
@@ -37153,7 +37153,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>491.2320453030855</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37162,13 +37162,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="P33" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>18.22667726606008</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>435.3350991233255</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
         <v>567.3796893823536</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>491.2320453030855</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>688.3272054397147</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>461.373944936793</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
         <v>567.3796893823536</v>
@@ -38101,7 +38101,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>461.3739449367926</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
-        <v>567.3796893823536</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
